--- a/FlxDatasetSelectionSteps.xlsx
+++ b/FlxDatasetSelectionSteps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://butleru-my.sharepoint.com/personal/dgcooper1_butler_edu/Documents/Documents/Home/Fluoxetine/Systematic GSE Selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://butleru-my.sharepoint.com/personal/dgcooper1_butler_edu/Documents/Documents/Home/Fluoxetine/FLX MetaDE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1689" documentId="8_{E59CCF89-B1F1-4FE7-9885-6B8DD1AACD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F487E8-D060-4FEE-A6BD-5B84B80249C8}"/>
+  <xr:revisionPtr revIDLastSave="1698" documentId="8_{E59CCF89-B1F1-4FE7-9885-6B8DD1AACD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B06FBA-04CC-47DB-A492-BA514C53094B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{4B7D2A65-3460-43E1-A12F-A3D53F29DF9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4B7D2A65-3460-43E1-A12F-A3D53F29DF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering Steps" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GSE Accession Numbers'!$A$1:$D$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Screening Table for Manuscript'!$A$1:$E$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Selected Dataset Table'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Selected Dataset Table'!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -979,101 +979,391 @@
     <t>DS1</t>
   </si>
   <si>
+    <t>Microarray</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Cortex</t>
+  </si>
+  <si>
+    <t>60 (30/group)</t>
+  </si>
+  <si>
+    <t>Fluoxetine</t>
+  </si>
+  <si>
+    <t>3-weeks 18 mg/kg/day</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Treated vs Untreated (pooled)</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>Dorsal dentate gyrus, ventral dentate gyrus</t>
+  </si>
+  <si>
+    <t>38 (4 or 8/group)</t>
+  </si>
+  <si>
+    <t>Corticosterone</t>
+  </si>
+  <si>
+    <t>&gt;1-week 160 mg/L in drinking water</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Lymphoblastoid cell lines</t>
+  </si>
+  <si>
+    <t>20 (10/group)</t>
+  </si>
+  <si>
+    <t>Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>3-weeks 0.5 µg/mL</t>
+  </si>
+  <si>
+    <t>DS4</t>
+  </si>
+  <si>
+    <t>Dentate gyrus, Anterior cingulate cortex</t>
+  </si>
+  <si>
+    <t>64 (8/group)</t>
+  </si>
+  <si>
+    <t>7-weeks unpredictable chronic mild stress</t>
+  </si>
+  <si>
+    <t>5-weeks 120 mg/L in drinking water</t>
+  </si>
+  <si>
+    <t>Stress vs No Stress (untreated) [2 tissues],
+Stress vs No Stress (treated) [2 tissues],
+Treated vs Untreated (stress) [2 tissues], 
+Treated vs Untreated (no stress) [2 tissues]</t>
+  </si>
+  <si>
+    <t>DS5</t>
+  </si>
+  <si>
+    <t>Whole blood</t>
+  </si>
+  <si>
+    <t>32 (8/group)</t>
+  </si>
+  <si>
+    <t>Stress vs No Stress (untreated),
+Stress vs No Stress (treated),
+Treated vs Untreated (stress), 
+Treated vs Untreated (no stress)</t>
+  </si>
+  <si>
+    <t>DS6</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>S100a10 cortical cells</t>
+  </si>
+  <si>
+    <t>32 (4/group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-weeks single-housing </t>
+  </si>
+  <si>
+    <t>3-weeks 167 mg/L in drinking water</t>
+  </si>
+  <si>
+    <t>DS7</t>
+  </si>
+  <si>
+    <t>(-) S100a10 Cells
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>6 (3/group)</t>
+  </si>
+  <si>
+    <t>15-18 days 167 mg/L in drinking water</t>
+  </si>
+  <si>
+    <t>Treated vs Untreated</t>
+  </si>
+  <si>
+    <t>DS8</t>
+  </si>
+  <si>
+    <t>(-) Glt25d2 Cells
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>Glt25d2 cortical cells</t>
+  </si>
+  <si>
+    <t>DS9</t>
+  </si>
+  <si>
+    <t>(-) Hippocampus
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Hippocampus</t>
+  </si>
+  <si>
+    <t>8 (4/group)</t>
+  </si>
+  <si>
+    <t>3-weeks 10 mg/kg/day</t>
+  </si>
+  <si>
+    <t>75th percentile normalization</t>
+  </si>
+  <si>
+    <t>DS10</t>
+  </si>
+  <si>
+    <t>(a-d) Striatum
+(a) Treatment 1 hour
+(b) Treatment 2 hours
+(c) Treatment 4 hours
+(d) Treatment 8 hours</t>
+  </si>
+  <si>
+    <t>Striatum</t>
+  </si>
+  <si>
+    <t>60 (12/group)</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Imipramine, Tianeptine</t>
+  </si>
+  <si>
+    <t>1-dose 20 mg/kg</t>
+  </si>
+  <si>
+    <t>Treated vs Untreated (pooled), 
+Treated vs Untreated (per time-point) [4 time-points]</t>
+  </si>
+  <si>
+    <t>DS11</t>
+  </si>
+  <si>
+    <t>(-) Dentate Gyrus
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>Dentate gyrus</t>
+  </si>
+  <si>
+    <t>21 (3/group)</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Agomelatine, Imipramine, Tianeptine</t>
+  </si>
+  <si>
+    <t>6-weeks unpredictable chronic mild stress</t>
+  </si>
+  <si>
+    <t>2-weeks 10 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Quantile normalized</t>
+  </si>
+  <si>
+    <t>Stress vs No Stress, 
+Treated vs Untreated (stress)</t>
+  </si>
+  <si>
+    <t>DS12</t>
+  </si>
+  <si>
+    <t>(-) Brain
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>Hippocampus, Frontal cortex, Pituitary gland</t>
+  </si>
+  <si>
+    <t>12 (3/group: 1/tissue)</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Accupuncture</t>
+  </si>
+  <si>
+    <t>4-weeks of chronic restraint stress</t>
+  </si>
+  <si>
+    <t>4-weeks 10 mg/kg/day</t>
+  </si>
+  <si>
+    <t>DS13</t>
+  </si>
+  <si>
+    <t>(-) Glioma
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>C6 glioma cells (model of astrocytes)</t>
+  </si>
+  <si>
+    <t>28 (4 or 6/group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoxetine, Diazepam, Desipramine, Haloperidol </t>
+  </si>
+  <si>
+    <t>2-hours 25 µM</t>
+  </si>
+  <si>
+    <t>DS14</t>
+  </si>
+  <si>
+    <t>12 (3/group)</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Albiflorin</t>
+  </si>
+  <si>
+    <t>5-weeks chronic unpredictable stress</t>
+  </si>
+  <si>
+    <t>1-week 10 mg/kg/day</t>
+  </si>
+  <si>
+    <t>DS15</t>
+  </si>
+  <si>
+    <t>(-) Prefrontal Cortex
+(-) Treatment</t>
+  </si>
+  <si>
+    <t>Prefrontal cortex</t>
+  </si>
+  <si>
+    <t>16 (8/group)</t>
+  </si>
+  <si>
+    <t>3-weeks 15 mg/kg/day</t>
+  </si>
+  <si>
+    <t>DS16</t>
+  </si>
+  <si>
+    <t>DS17</t>
+  </si>
+  <si>
+    <t>(-) Blood
+(-) Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microarray </t>
+  </si>
+  <si>
+    <t>32 (15-17/group)</t>
+  </si>
+  <si>
+    <t>8-weeks, dosage not specified</t>
+  </si>
+  <si>
+    <t>Treated vs Pre-treatment</t>
+  </si>
+  <si>
+    <t>DS18</t>
+  </si>
+  <si>
+    <t>(-) Amygdala
+(-) Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA-Seq  </t>
+  </si>
+  <si>
+    <t>Amygdala</t>
+  </si>
+  <si>
+    <t>48 (8/group)</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Imipramine</t>
+  </si>
+  <si>
+    <t>2 days, 5 mg/kg/day</t>
+  </si>
+  <si>
+    <t>DS19</t>
+  </si>
+  <si>
+    <t>(a-aa) 27 Brain Regions
+(a-aa) Treatment</t>
+  </si>
+  <si>
+    <t>27 brain regions</t>
+  </si>
+  <si>
+    <t>212 (~4/group)</t>
+  </si>
+  <si>
+    <t>6-weeks 18 mg/kg/day</t>
+  </si>
+  <si>
+    <t>Treated vs Untreated (pooled), 
+Treated vs Untreated (per brain region) [27 brain regions]</t>
+  </si>
+  <si>
+    <t>DS20</t>
+  </si>
+  <si>
+    <t>Fluoxetine, Eicosapentaenoic acid, Lipopolysacharide</t>
+  </si>
+  <si>
+    <t>12-weeks chronic unpredictable stress</t>
+  </si>
+  <si>
+    <t>4-weeks 5 mg/kg/day</t>
+  </si>
+  <si>
     <t>(a-d) Cortex
 (a) Response
 (b) Treatment
-(c) Non-responders
-(d) Responders</t>
-  </si>
-  <si>
-    <t>Microarray</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>Cortex</t>
-  </si>
-  <si>
-    <t>60 (30/group)</t>
-  </si>
-  <si>
-    <t>Fluoxetine</t>
-  </si>
-  <si>
-    <t>3-weeks 18 mg/kg/day</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Treated vs Untreated (pooled)</t>
-  </si>
-  <si>
-    <t>DS2</t>
+(c) Treatment (Non-responders)
+(d) Treatment (Responders)</t>
   </si>
   <si>
     <t>(a, c, e, g) Dorsal Dentate Gyrus
 (b, d, f, h) Ventral Dentate Gyrus
 (a-b) Reponse
 (c-d) Treatment
-(e-f) Non-responders
-(g-h) Responders</t>
-  </si>
-  <si>
-    <t>Dorsal dentate gyrus, ventral dentate gyrus</t>
-  </si>
-  <si>
-    <t>38 (4 or 8/group)</t>
-  </si>
-  <si>
-    <t>Corticosterone</t>
-  </si>
-  <si>
-    <t>&gt;1-week 160 mg/L in drinking water</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Treated vs Untreated (pooled) [2 tissues], 
-Treated (responders) vs Untreated (pooled) [2 tissues],
-Treated (non-responders) vs Untreated (pooled) [2 tissues],
-Responders vs Non-responders (treated) [2 tissues]</t>
-  </si>
-  <si>
-    <t>DS3</t>
+(e-f) Treatment (Non-responders)
+(g-h) Treatment (Responders)</t>
   </si>
   <si>
     <t>(a-d) Lymphoblastoid Cell Lines
 (a) Response
 (b) Treatment
-(c) Non-responders
-(d) Responders</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Lymphoblastoid cell lines</t>
-  </si>
-  <si>
-    <t>20 (10/group)</t>
-  </si>
-  <si>
-    <t>Major Depressive Disorder</t>
-  </si>
-  <si>
-    <t>3-weeks 0.5 µg/mL</t>
-  </si>
-  <si>
-    <t>Treated vs Untreated (pooled), 
-Treated vs Untreated (responders),
-Treated vs Untreated (non-responders),
-Responders vs Non-responders (treated)</t>
-  </si>
-  <si>
-    <t>DS4</t>
+(c) Treatment (Non-responders)
+(d) Treatment (Responders)</t>
   </si>
   <si>
     <t>(a, c, e, g, i) Anterior Cingulate Cortex
@@ -1081,340 +1371,50 @@
 (a-b) Reponse
 (c-d) Stressed Treatment
 (e-f) Unstressed Treatment
-(g-h) Non-responders
-(i-j) Responders</t>
-  </si>
-  <si>
-    <t>Dentate gyrus, Anterior cingulate cortex</t>
-  </si>
-  <si>
-    <t>64 (8/group)</t>
-  </si>
-  <si>
-    <t>7-weeks unpredictable chronic mild stress</t>
-  </si>
-  <si>
-    <t>5-weeks 120 mg/L in drinking water</t>
-  </si>
-  <si>
-    <t>Stress vs No Stress (untreated) [2 tissues],
-Stress vs No Stress (treated) [2 tissues],
-Treated vs Untreated (stress) [2 tissues], 
-Treated vs Untreated (no stress) [2 tissues]</t>
-  </si>
-  <si>
-    <t>DS5</t>
+(g-h) Treatment (Non-responders)
+(i-j) Treatment (Responders)</t>
   </si>
   <si>
     <t>(a-e) Blood
 (a) Reponse
 (b) Stressed Treatment
 (c) Unstressed Treatment
-(d) Non-responders
-(e) Responders</t>
-  </si>
-  <si>
-    <t>Whole blood</t>
-  </si>
-  <si>
-    <t>32 (8/group)</t>
-  </si>
-  <si>
-    <t>Stress vs No Stress (untreated),
-Stress vs No Stress (treated),
-Treated vs Untreated (stress), 
-Treated vs Untreated (no stress)</t>
-  </si>
-  <si>
-    <t>DS6</t>
+(d) Treatment (Non-responders)
+(e) Treatment (Responders)</t>
   </si>
   <si>
     <t>(a, c, e, g) S100a10 Whole Cell
 (b, d, f, h) S100a10 TRAP
 (a-b) Reponse
 (c-d) Treatment
-(e-f) Non-responders
-(g-h) Responders</t>
-  </si>
-  <si>
-    <t>RNA-Seq</t>
-  </si>
-  <si>
-    <t>S100a10 cortical cells</t>
-  </si>
-  <si>
-    <t>32 (4/group)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-weeks single-housing </t>
-  </si>
-  <si>
-    <t>3-weeks 167 mg/L in drinking water</t>
+(e-f) Treatment (Non-responders)
+(g-h) Treatment (Responders)</t>
   </si>
   <si>
     <t>Stress vs No Stress [Whole cell and TRAP], 
 Treated vs Untreated (stress) [Whole cell and TRAP],
 Treated (responders) vs Untreated (pooled) [Whole cell and TRAP],
-Treated (non-responders) vs Untreated (pooled) [Whole cell and TRAP], 
-Responders vs Non-responders (stress, treated) [Whole cell and TRAP]</t>
-  </si>
-  <si>
-    <t>DS7</t>
-  </si>
-  <si>
-    <t>(-) S100a10 Cells
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>6 (3/group)</t>
-  </si>
-  <si>
-    <t>15-18 days 167 mg/L in drinking water</t>
-  </si>
-  <si>
-    <t>Treated vs Untreated</t>
-  </si>
-  <si>
-    <t>DS8</t>
-  </si>
-  <si>
-    <t>(-) Glt25d2 Cells
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>Glt25d2 cortical cells</t>
-  </si>
-  <si>
-    <t>DS9</t>
-  </si>
-  <si>
-    <t>(-) Hippocampus
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Hippocampus</t>
-  </si>
-  <si>
-    <t>8 (4/group)</t>
-  </si>
-  <si>
-    <t>3-weeks 10 mg/kg/day</t>
-  </si>
-  <si>
-    <t>75th percentile normalization</t>
-  </si>
-  <si>
-    <t>DS10</t>
-  </si>
-  <si>
-    <t>(a-d) Striatum
-(a) Treatment 1 hour
-(b) Treatment 2 hours
-(c) Treatment 4 hours
-(d) Treatment 8 hours</t>
-  </si>
-  <si>
-    <t>Striatum</t>
-  </si>
-  <si>
-    <t>60 (12/group)</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Imipramine, Tianeptine</t>
-  </si>
-  <si>
-    <t>1-dose 20 mg/kg</t>
+Treated (Treatment (Non-responders)) vs Untreated (pooled) [Whole cell and TRAP], 
+Treatment (Responders) vs Treatment (Non-responders) (stress, treated) [Whole cell and TRAP]</t>
+  </si>
+  <si>
+    <t>Treated vs Untreated (pooled) [2 tissues], 
+Treated (responders) vs Untreated (pooled) [2 tissues],
+Treated (Non-responders) vs Untreated (pooled) [2 tissues],
+Treatment (Responders) vs Treatment (Non-responders) [2 tissues]</t>
   </si>
   <si>
     <t>Treated vs Untreated (pooled), 
-Treated vs Untreated (per time-point) [4 time-points]</t>
-  </si>
-  <si>
-    <t>DS11</t>
-  </si>
-  <si>
-    <t>(-) Dentate Gyrus
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>Dentate gyrus</t>
-  </si>
-  <si>
-    <t>21 (3/group)</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Agomelatine, Imipramine, Tianeptine</t>
-  </si>
-  <si>
-    <t>6-weeks unpredictable chronic mild stress</t>
-  </si>
-  <si>
-    <t>2-weeks 10 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Quantile normalized</t>
-  </si>
-  <si>
-    <t>Stress vs No Stress, 
-Treated vs Untreated (stress)</t>
-  </si>
-  <si>
-    <t>DS12</t>
-  </si>
-  <si>
-    <t>(-) Brain
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>Hippocampus, Frontal cortex, Pituitary gland</t>
-  </si>
-  <si>
-    <t>12 (3/group: 1/tissue)</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Accupuncture</t>
-  </si>
-  <si>
-    <t>4-weeks of chronic restraint stress</t>
-  </si>
-  <si>
-    <t>4-weeks 10 mg/kg/day</t>
-  </si>
-  <si>
-    <t>DS13</t>
-  </si>
-  <si>
-    <t>(-) Glioma
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>C6 glioma cells (model of astrocytes)</t>
-  </si>
-  <si>
-    <t>28 (4 or 6/group)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoxetine, Diazepam, Desipramine, Haloperidol </t>
-  </si>
-  <si>
-    <t>2-hours 25 µM</t>
-  </si>
-  <si>
-    <t>DS14</t>
-  </si>
-  <si>
-    <t>12 (3/group)</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Albiflorin</t>
-  </si>
-  <si>
-    <t>5-weeks chronic unpredictable stress</t>
-  </si>
-  <si>
-    <t>1-week 10 mg/kg/day</t>
-  </si>
-  <si>
-    <t>DS15</t>
-  </si>
-  <si>
-    <t>(-) Prefrontal Cortex
-(-) Treatment</t>
-  </si>
-  <si>
-    <t>Prefrontal cortex</t>
-  </si>
-  <si>
-    <t>16 (8/group)</t>
-  </si>
-  <si>
-    <t>3-weeks 15 mg/kg/day</t>
-  </si>
-  <si>
-    <t>DS16</t>
-  </si>
-  <si>
-    <t>DS17</t>
-  </si>
-  <si>
-    <t>(-) Blood
-(-) Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microarray </t>
-  </si>
-  <si>
-    <t>32 (15-17/group)</t>
-  </si>
-  <si>
-    <t>8-weeks, dosage not specified</t>
-  </si>
-  <si>
-    <t>Treated vs Pre-treatment</t>
-  </si>
-  <si>
-    <t>DS18</t>
-  </si>
-  <si>
-    <t>(-) Amygdala
-(-) Treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-Seq  </t>
-  </si>
-  <si>
-    <t>Amygdala</t>
-  </si>
-  <si>
-    <t>48 (8/group)</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Imipramine</t>
-  </si>
-  <si>
-    <t>2 days, 5 mg/kg/day</t>
-  </si>
-  <si>
-    <t>DS19</t>
-  </si>
-  <si>
-    <t>(a-aa) 27 Brain Regions
-(a-aa) Treatment</t>
-  </si>
-  <si>
-    <t>27 brain regions</t>
-  </si>
-  <si>
-    <t>212 (~4/group)</t>
-  </si>
-  <si>
-    <t>6-weeks 18 mg/kg/day</t>
-  </si>
-  <si>
-    <t>Treated vs Untreated (pooled), 
-Treated vs Untreated (per brain region) [27 brain regions]</t>
-  </si>
-  <si>
-    <t>DS20</t>
-  </si>
-  <si>
-    <t>Fluoxetine, Eicosapentaenoic acid, Lipopolysacharide</t>
-  </si>
-  <si>
-    <t>12-weeks chronic unpredictable stress</t>
-  </si>
-  <si>
-    <t>4-weeks 5 mg/kg/day</t>
+Treated vs Untreated (responders),
+Treated vs Untreated (Non-responders),
+Treatment (Responders) vs Treatment (Non-responders)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,10 +1607,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1648,7 +1652,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1754,7 +1758,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1896,7 +1900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1910,82 +1914,82 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1958</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="30">
+    <row r="3" spans="1:18" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30">
+    <row r="7" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30">
+    <row r="12" spans="1:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>20</v>
       </c>
@@ -2007,7 +2011,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2018,7 +2022,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2198,7 +2202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2455,7 +2459,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>90</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>97</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>98</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>99</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>101</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>48</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>50</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75">
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>102</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>105</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>106</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>107</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>108</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>109</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>56</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75">
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>58</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75">
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>111</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>112</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>113</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>60</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>114</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>115</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>117</v>
       </c>
@@ -3086,7 +3090,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
@@ -3098,7 +3102,7 @@
     <col min="8" max="8" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>118</v>
       </c>
@@ -3117,7 +3121,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="30.75">
+    <row r="2" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75">
+    <row r="3" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75">
+    <row r="4" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45.75">
+    <row r="5" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75">
+    <row r="6" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45.75">
+    <row r="7" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45.75">
+    <row r="8" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45.75">
+    <row r="9" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3289,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="30.75">
+    <row r="10" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -3303,7 +3307,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="45.75">
+    <row r="11" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75">
+    <row r="12" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -3337,7 +3341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30.75">
+    <row r="13" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -3372,7 +3376,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="45.75">
+    <row r="15" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45.75">
+    <row r="16" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30.75">
+    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.75">
+    <row r="18" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.75">
+    <row r="19" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45.75">
+    <row r="20" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45.75">
+    <row r="21" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45.75">
+    <row r="22" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -3509,7 +3513,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="30.75">
+    <row r="23" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45.75">
+    <row r="24" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
@@ -3543,7 +3547,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45.75">
+    <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.75">
+    <row r="26" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="45.75">
+    <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.75">
+    <row r="28" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30.75">
+    <row r="29" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -3629,7 +3633,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="30.75">
+    <row r="30" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45.75">
+    <row r="31" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45.75">
+    <row r="32" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30.75">
+    <row r="33" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45.75">
+    <row r="34" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30.75">
+    <row r="35" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>74</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30.75">
+    <row r="36" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3749,7 +3753,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="30.75">
+    <row r="37" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
@@ -3767,7 +3771,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="30.75">
+    <row r="38" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30.75">
+    <row r="39" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="45.75">
+    <row r="40" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30.75">
+    <row r="41" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30.75">
+    <row r="42" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>31</v>
       </c>
@@ -3853,7 +3857,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="30.75">
+    <row r="43" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>81</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="45.75">
+    <row r="44" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3892,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="45.75">
+    <row r="45" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.75">
+    <row r="46" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +3927,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="45.75">
+    <row r="47" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
@@ -3941,7 +3945,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="45.75">
+    <row r="48" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30.75">
+    <row r="49" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
@@ -3976,7 +3980,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="30.75">
+    <row r="50" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
@@ -3994,7 +3998,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="45.75">
+    <row r="51" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>84</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30.75">
+    <row r="52" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>85</v>
       </c>
@@ -4028,7 +4032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30.75">
+    <row r="53" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -4046,7 +4050,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="30.75">
+    <row r="54" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>86</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>88</v>
       </c>
@@ -4080,7 +4084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30.75">
+    <row r="56" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>89</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30.75">
+    <row r="57" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>90</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30.75">
+    <row r="58" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>92</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30.75">
+    <row r="59" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>94</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>96</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30.75">
+    <row r="61" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>97</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30.75">
+    <row r="62" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>98</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="30.75">
+    <row r="63" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>99</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45.75">
+    <row r="64" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>100</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30.75">
+    <row r="65" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>101</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="45.75">
+    <row r="66" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>48</v>
       </c>
@@ -4268,7 +4272,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="30.75">
+    <row r="67" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>50</v>
       </c>
@@ -4286,7 +4290,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="30.75">
+    <row r="68" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>102</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30.75">
+    <row r="69" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>104</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30.75">
+    <row r="70" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -4338,7 +4342,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="30.75">
+    <row r="71" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>105</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45.75">
+    <row r="72" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>106</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30.75">
+    <row r="73" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>107</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30.75">
+    <row r="74" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>108</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30.75">
+    <row r="75" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>109</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30.75">
+    <row r="76" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>56</v>
       </c>
@@ -4441,7 +4445,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="30.75">
+    <row r="77" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>58</v>
       </c>
@@ -4459,7 +4463,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="30.75">
+    <row r="78" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>111</v>
       </c>
@@ -4476,7 +4480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30.75">
+    <row r="79" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>112</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30.75">
+    <row r="80" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>113</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30.75">
+    <row r="81" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>60</v>
       </c>
@@ -4528,7 +4532,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="30.75">
+    <row r="82" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>114</v>
       </c>
@@ -4545,7 +4549,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>115</v>
       </c>
@@ -4562,7 +4566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30.75">
+    <row r="84" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>116</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>117</v>
       </c>
@@ -4607,13 +4611,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A023758-273C-4488-92B7-02939DBC977B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="12" customWidth="1"/>
@@ -4636,7 +4641,7 @@
     <col min="19" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45.75">
+    <row r="1" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>296</v>
       </c>
@@ -4692,12 +4697,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="76.5">
+    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>311</v>
+        <v>425</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>60</v>
@@ -4712,46 +4717,46 @@
         <v>286</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M2" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>318</v>
-      </c>
       <c r="O2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="91.5">
+    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>48</v>
@@ -4766,46 +4771,46 @@
         <v>260</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I3" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>326</v>
-      </c>
       <c r="O3" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="R3" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="76.5">
+    <row r="4" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
@@ -4820,46 +4825,46 @@
         <v>230</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>334</v>
-      </c>
       <c r="N4" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>335</v>
+        <v>433</v>
       </c>
       <c r="R4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="107.25">
+    <row r="5" spans="1:18" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>37</v>
@@ -4874,46 +4879,46 @@
         <v>222</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I5" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="R5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="91.5">
+    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>35</v>
@@ -4928,46 +4933,46 @@
         <v>222</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I6" s="13" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="R6" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="91.5">
+    <row r="7" spans="1:18" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -4982,46 +4987,46 @@
         <v>147</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="R7" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45.75">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>58</v>
@@ -5036,46 +5041,46 @@
         <v>276</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>141</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R8" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.75">
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>56</v>
@@ -5090,46 +5095,46 @@
         <v>276</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>141</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R9" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="45.75">
+    <row r="10" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>50</v>
@@ -5144,48 +5149,48 @@
         <v>262</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="76.5">
+    <row r="11" spans="1:18" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>53</v>
@@ -5200,46 +5205,46 @@
         <v>267</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>313</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>141</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="13" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="R11" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="45.75">
+    <row r="12" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>45</v>
@@ -5254,48 +5259,48 @@
         <v>237</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="R12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="76.5">
+    <row r="13" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>32</v>
@@ -5310,46 +5315,46 @@
         <v>220</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="R13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="45.75">
+    <row r="14" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>40</v>
@@ -5364,46 +5369,46 @@
         <v>228</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45.75">
+    <row r="15" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>31</v>
@@ -5418,46 +5423,46 @@
         <v>215</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="R15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45.75">
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -5472,46 +5477,46 @@
         <v>201</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I16" s="13" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45.75">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>28</v>
@@ -5526,46 +5531,46 @@
         <v>201</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="I17" s="13" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30.75">
+    <row r="18" spans="1:18" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>26</v>
@@ -5580,46 +5585,46 @@
         <v>187</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="R18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="61.5">
+    <row r="19" spans="1:18" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
@@ -5634,46 +5639,46 @@
         <v>175</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="R19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="45.75">
+    <row r="20" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>16</v>
@@ -5688,46 +5693,46 @@
         <v>128</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>141</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="R20" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="76.5">
+    <row r="21" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
@@ -5742,41 +5747,41 @@
         <v>145</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="R21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.5" customHeight="1">
+    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="17"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -5791,7 +5796,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" customHeight="1">
+    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="17"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -5809,7 +5814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16.5" customHeight="1">
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="17"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -5824,7 +5829,7 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1">
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="17"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -5839,7 +5844,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="3:18" ht="16.5" customHeight="1">
+    <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="17"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -5854,7 +5859,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="3:18" ht="16.5" customHeight="1">
+    <row r="34" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="17"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -5869,7 +5874,7 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="3:18" ht="16.5" customHeight="1">
+    <row r="35" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="17"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -5884,7 +5889,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="3:18" ht="16.5" customHeight="1">
+    <row r="36" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="18"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
@@ -5899,7 +5904,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="3:18" ht="16.5" customHeight="1">
+    <row r="37" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="18"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
@@ -5914,7 +5919,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="3:18" ht="16.5" customHeight="1">
+    <row r="38" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="19"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -5929,7 +5934,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="3:18" ht="16.5" customHeight="1">
+    <row r="39" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="17"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -5944,7 +5949,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="3:18" ht="16.5" customHeight="1">
+    <row r="40" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="17"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
@@ -5959,7 +5964,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="3:18" ht="16.5" customHeight="1">
+    <row r="41" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="20"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -5974,7 +5979,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="3:18" ht="16.5" customHeight="1">
+    <row r="42" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="20"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -5989,7 +5994,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="3:18" ht="16.5" customHeight="1">
+    <row r="43" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="20"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -6004,7 +6009,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="3:18" ht="16.5" customHeight="1">
+    <row r="44" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="20"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -6019,7 +6024,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="3:18" ht="16.5" customHeight="1">
+    <row r="45" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="18"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -6034,7 +6039,7 @@
       <c r="Q45" s="15"/>
       <c r="R45" s="17"/>
     </row>
-    <row r="46" spans="3:18" ht="16.5" customHeight="1">
+    <row r="46" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
@@ -6049,7 +6054,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="3:18" ht="16.5" customHeight="1">
+    <row r="47" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="17"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
@@ -6064,7 +6069,7 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="3:18" ht="16.5" customHeight="1">
+    <row r="48" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="17"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -6079,7 +6084,7 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="3:18" ht="16.5" customHeight="1">
+    <row r="49" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="17"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -6094,7 +6099,7 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="3:18" ht="16.5" customHeight="1">
+    <row r="50" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="17"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
@@ -6109,7 +6114,7 @@
       <c r="Q50" s="13"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="3:18" ht="16.5" customHeight="1">
+    <row r="51" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="17"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
@@ -6124,7 +6129,7 @@
       <c r="Q51" s="13"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="3:18" ht="16.5" customHeight="1">
+    <row r="52" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="17"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
@@ -6139,7 +6144,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="3:18" ht="16.5" customHeight="1">
+    <row r="53" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="17"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
@@ -6154,7 +6159,7 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="3:18" ht="16.5" customHeight="1">
+    <row r="54" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="17"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
@@ -6169,7 +6174,7 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="3:18" ht="16.5" customHeight="1">
+    <row r="55" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="17"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
@@ -6184,7 +6189,7 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="3:18" ht="16.5" customHeight="1">
+    <row r="56" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="17"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -6199,7 +6204,7 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="3:18" ht="16.5" customHeight="1">
+    <row r="57" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="17"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -6214,7 +6219,7 @@
       <c r="Q57" s="13"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="3:18" ht="16.5" customHeight="1">
+    <row r="58" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="17"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -6229,7 +6234,7 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="3:18" ht="16.5" customHeight="1">
+    <row r="59" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="17"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -6244,7 +6249,7 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="3:18" ht="16.5" customHeight="1">
+    <row r="60" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="17"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -6259,7 +6264,7 @@
       <c r="Q60" s="13"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="3:18" ht="16.5" customHeight="1">
+    <row r="61" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="17"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -6274,7 +6279,7 @@
       <c r="Q61" s="13"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="3:18" ht="16.5" customHeight="1">
+    <row r="62" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="17"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -6289,7 +6294,7 @@
       <c r="Q62" s="13"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="3:18" ht="16.5" customHeight="1">
+    <row r="63" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="17"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -6304,7 +6309,7 @@
       <c r="Q63" s="13"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="3:18" ht="16.5" customHeight="1">
+    <row r="64" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="17"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -6319,7 +6324,7 @@
       <c r="Q64" s="13"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="3:18" ht="16.5" customHeight="1">
+    <row r="65" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="17"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -6334,7 +6339,7 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="3:18" ht="16.5" customHeight="1">
+    <row r="66" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="17"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -6349,7 +6354,7 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="3:18" ht="16.5" customHeight="1">
+    <row r="67" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="17"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -6364,7 +6369,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="3:18" ht="16.5" customHeight="1">
+    <row r="68" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="17"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
@@ -6379,7 +6384,7 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="3:18" ht="16.5" customHeight="1">
+    <row r="69" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="17"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -6394,7 +6399,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="3:18" ht="16.5" customHeight="1">
+    <row r="70" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="17"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
@@ -6409,7 +6414,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="3:18" ht="16.5" customHeight="1">
+    <row r="71" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="17"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -6424,7 +6429,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="3:18" ht="16.5" customHeight="1">
+    <row r="72" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="17"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -6439,7 +6444,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="3:18" ht="16.5" customHeight="1">
+    <row r="73" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="17"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -6454,7 +6459,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="3:18" ht="16.5" customHeight="1">
+    <row r="74" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
@@ -6469,7 +6474,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="3:18" ht="16.5" customHeight="1">
+    <row r="75" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="17"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
@@ -6484,7 +6489,7 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="3:18" ht="16.5" customHeight="1">
+    <row r="76" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="17"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -6499,7 +6504,7 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="3:18" ht="16.5" customHeight="1">
+    <row r="77" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="17"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
@@ -6514,7 +6519,7 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="3:18" ht="16.5" customHeight="1">
+    <row r="78" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="17"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -6529,7 +6534,7 @@
       <c r="Q78" s="13"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="3:18" ht="16.5" customHeight="1">
+    <row r="79" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="17"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -6544,7 +6549,7 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="3:18" ht="16.5" customHeight="1">
+    <row r="80" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="17"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
@@ -6559,7 +6564,7 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="3:18" ht="16.5" customHeight="1">
+    <row r="81" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="17"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
@@ -6574,7 +6579,7 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="3:18" ht="16.5" customHeight="1">
+    <row r="82" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="17"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
@@ -6589,7 +6594,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="3:18" ht="16.5" customHeight="1">
+    <row r="83" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="17"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -6604,7 +6609,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="3:18" ht="16.5" customHeight="1">
+    <row r="84" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="17"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -6619,7 +6624,7 @@
       <c r="Q84" s="13"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="3:18" ht="16.5" customHeight="1">
+    <row r="85" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="17"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
@@ -6634,7 +6639,7 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="3:18" ht="16.5" customHeight="1">
+    <row r="86" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="17"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -6649,7 +6654,7 @@
       <c r="Q86" s="13"/>
       <c r="R86" s="6"/>
     </row>
-    <row r="87" spans="3:18" ht="16.5" customHeight="1">
+    <row r="87" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="17"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -6664,7 +6669,7 @@
       <c r="Q87" s="13"/>
       <c r="R87" s="6"/>
     </row>
-    <row r="88" spans="3:18" ht="16.5" customHeight="1">
+    <row r="88" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="17"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -6679,7 +6684,7 @@
       <c r="Q88" s="13"/>
       <c r="R88" s="6"/>
     </row>
-    <row r="89" spans="3:18" ht="16.5" customHeight="1">
+    <row r="89" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="17"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -6694,7 +6699,7 @@
       <c r="Q89" s="13"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="3:18" ht="16.5" customHeight="1">
+    <row r="90" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="17"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
@@ -6709,7 +6714,7 @@
       <c r="Q90" s="13"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="3:18" ht="16.5" customHeight="1">
+    <row r="91" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="17"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -6724,7 +6729,7 @@
       <c r="Q91" s="13"/>
       <c r="R91" s="6"/>
     </row>
-    <row r="92" spans="3:18" ht="16.5" customHeight="1">
+    <row r="92" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="17"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -6739,7 +6744,7 @@
       <c r="Q92" s="13"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="3:18" ht="16.5" customHeight="1">
+    <row r="93" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="17"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -6754,7 +6759,7 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="6"/>
     </row>
-    <row r="94" spans="3:18" ht="16.5" customHeight="1">
+    <row r="94" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="17"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -6769,7 +6774,7 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="6"/>
     </row>
-    <row r="95" spans="3:18" ht="16.5" customHeight="1">
+    <row r="95" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="17"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
@@ -6784,7 +6789,7 @@
       <c r="Q95" s="13"/>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="3:18" ht="16.5" customHeight="1">
+    <row r="96" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="17"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
@@ -6799,7 +6804,7 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="6"/>
     </row>
-    <row r="97" spans="3:18" ht="16.5" customHeight="1">
+    <row r="97" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="17"/>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
@@ -6814,7 +6819,7 @@
       <c r="Q97" s="13"/>
       <c r="R97" s="6"/>
     </row>
-    <row r="98" spans="3:18" ht="16.5" customHeight="1">
+    <row r="98" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="17"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
@@ -6829,7 +6834,7 @@
       <c r="Q98" s="13"/>
       <c r="R98" s="6"/>
     </row>
-    <row r="99" spans="3:18" ht="16.5" customHeight="1">
+    <row r="99" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="17"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -6844,54 +6849,59 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="6"/>
     </row>
-    <row r="100" spans="3:18" ht="15"/>
-    <row r="101" spans="3:18" ht="15"/>
-    <row r="102" spans="3:18" ht="15"/>
-    <row r="103" spans="3:18" ht="15"/>
-    <row r="104" spans="3:18" ht="15"/>
-    <row r="105" spans="3:18" ht="15"/>
-    <row r="106" spans="3:18" ht="15"/>
-    <row r="107" spans="3:18" ht="15"/>
-    <row r="108" spans="3:18" ht="15"/>
-    <row r="109" spans="3:18" ht="15"/>
-    <row r="110" spans="3:18" ht="15"/>
-    <row r="111" spans="3:18" ht="15"/>
-    <row r="112" spans="3:18" ht="15"/>
-    <row r="113" ht="15"/>
-    <row r="114" ht="15"/>
-    <row r="115" ht="15"/>
-    <row r="116" ht="15"/>
-    <row r="117" ht="15"/>
-    <row r="118" ht="15"/>
-    <row r="119" ht="15"/>
-    <row r="120" ht="15"/>
-    <row r="121" ht="15"/>
-    <row r="122" ht="15"/>
-    <row r="123" ht="15"/>
-    <row r="124" ht="15"/>
-    <row r="125" ht="15"/>
-    <row r="126" ht="15"/>
-    <row r="127" ht="15"/>
-    <row r="128" ht="15"/>
-    <row r="129" ht="15"/>
-    <row r="130" ht="15"/>
-    <row r="131" ht="15"/>
-    <row r="132" ht="15"/>
-    <row r="133" ht="15"/>
-    <row r="134" ht="15"/>
-    <row r="135" ht="15"/>
-    <row r="136" ht="15"/>
-    <row r="137" ht="15"/>
-    <row r="138" ht="15"/>
-    <row r="139" ht="15"/>
-    <row r="140" ht="15"/>
-    <row r="141" ht="15"/>
-    <row r="142" ht="15"/>
-    <row r="143" ht="15"/>
-    <row r="144" ht="15"/>
-    <row r="145" ht="15"/>
+    <row r="100" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="3:18" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{3A023758-273C-4488-92B7-02939DBC977B}">
+  <autoFilter ref="A1:R21" xr:uid="{3A023758-273C-4488-92B7-02939DBC977B}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Mus musculus"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R21">
       <sortCondition ref="A1"/>
     </sortState>
@@ -6901,26 +6911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="878b45cb-cdb8-404a-afbd-4f5ebea3bc66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a59a1ecc-aae9-4c81-aea4-aa0f1fbd2402" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100169E2BA31F651D49A55F2DFC77A4BEE2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504923a6dbdd0916e907ea27b389fe7b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="878b45cb-cdb8-404a-afbd-4f5ebea3bc66" xmlns:ns3="a59a1ecc-aae9-4c81-aea4-aa0f1fbd2402" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ebebe273109d778749daa09b95b4ba49" ns2:_="" ns3:_="">
     <xsd:import namespace="878b45cb-cdb8-404a-afbd-4f5ebea3bc66"/>
@@ -7157,14 +7147,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="878b45cb-cdb8-404a-afbd-4f5ebea3bc66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a59a1ecc-aae9-4c81-aea4-aa0f1fbd2402" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{175E1C1A-D687-411B-8CFF-A21DFC0D33FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D57CCE-C123-4837-BA85-3AEF1C2EFC27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="878b45cb-cdb8-404a-afbd-4f5ebea3bc66"/>
+    <ds:schemaRef ds:uri="a59a1ecc-aae9-4c81-aea4-aa0f1fbd2402"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C110275-5BD4-4592-BFC7-B5C614AE6883}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C110275-5BD4-4592-BFC7-B5C614AE6883}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D57CCE-C123-4837-BA85-3AEF1C2EFC27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{175E1C1A-D687-411B-8CFF-A21DFC0D33FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="878b45cb-cdb8-404a-afbd-4f5ebea3bc66"/>
+    <ds:schemaRef ds:uri="a59a1ecc-aae9-4c81-aea4-aa0f1fbd2402"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>